--- a/data/MergeLead.xlsx
+++ b/data/MergeLead.xlsx
@@ -27,10 +27,10 @@
     <t>SecondLeadID</t>
   </si>
   <si>
-    <t>10101</t>
+    <t>10057</t>
   </si>
   <si>
-    <t>10102</t>
+    <t>10060</t>
   </si>
 </sst>
 </file>
